--- a/Good Recordings/8.12.Labels.xlsx
+++ b/Good Recordings/8.12.Labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Continuous_Monitoring_project1\Good Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3766C586-F910-494A-A98C-51C96777AE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0214A95-9C4A-45F8-8462-95213EA9BBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7AE75DC6-168B-4BB6-B391-49A00C45A9EC}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -481,7 +481,7 @@
         <v>1734</v>
       </c>
       <c r="B5" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
